--- a/planilhas/solicitacoes.xlsx
+++ b/planilhas/solicitacoes.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -582,52 +582,104 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>205.718.991-02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Fulano de tal</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>reparos</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>EUW-993</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>21/11/2022</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>09:00:00</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>21/11/2022</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>11:00:00</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Troca da bomba de água</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>267.601.007-78</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ALCALENIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>reparos</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DIXOW</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24/11/2022</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>25/11/2022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Troca da bomba de água</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
